--- a/exhibitors2021/poster/exhibitor02/exhibitor_info_fields.xlsx
+++ b/exhibitors2021/poster/exhibitor02/exhibitor_info_fields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlynan/Downloads/git/intercubesatorg.github.io/exhibitors2021/poster/exhibitor02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24CC772-00F0-8743-BE56-7998767DDD11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8235CE03-1068-504F-A355-501058345580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="4060" windowWidth="27640" windowHeight="16940" xr2:uid="{8B4B8BA6-E24D-574D-B9DC-5F9C50A98387}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>02</t>
   </si>
   <si>
-    <t>https://gcc02.safelinks.protection.outlook.com/?url=https://urldefense.us/v3/__https:/gcc02.safelinks.protection.outlook.com/?url=https*3A*2F*2Furldefense.us*2Fv3*2F__https*3A*2Fteams.microsoft.com*2Fl*2Fmeetup-join*2F19*3ameeting_YjZmMjUzMTMtOWMxOC00MWU1LWE5ZGUtNzZiZWEzMDRmZWJk*40thread.v2*2F0*3Fcontext*3D*7b*22Tid*22*3a*227005d458-45be-48ae-8140-d43da96dd17b*22*2c*22Oid*22*3a*22e9e2948d-c8cb-4074-91c1-81699a6e5194*22*7d__*3BJSUlJSUlJSUlJSUlJSUl!!PvBDto6Hs4WbVuu7!Y_ENJF5JPha7J807SofdKzEEmv4ZOcVJI1hN8gqdj8WiNC-r97HTbYFyDos59eiFU8fL*24&amp;data=04*7C01*7Cjulianna.l.fishman*40nasa.gov*7C2dddc3d1fdc14b45135908d8ddb272fb*7C7005d45845be48ae8140d43da96dd17b*7C0*7C0*7C637503105808627770*7CUnknown*7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0*3D*7C1000&amp;sdata=kMy92aRqPoTO*2BMSM4MqfKmjLDz*2BdxyME6LU7Xwbt0IA*3D&amp;reserved=0__;JSUlJSUlJSUlJSoqJSUlKioqKioqKioqKioqKiUlJSUlJSUlJSUlJSUlJSUl!!PvBDto6Hs4WbVuu7!eHV53Ld3MKolGNSFdzl3AMU-oLBarPHLZXNCMRo2VkSnxtcFHcFOwVltXRpvzQWUyRsB$&amp;data=04|01|julianna.l.fishman@nasa.gov|202d341a05ba4725e75b08d8dde11db1|7005d45845be48ae8140d43da96dd17b|0|0|637503306241823576|Unknown|TWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0=|1000&amp;sdata=xSW3+f3h9HL9ULLwLmN3kpCqjCYKmSiq68ZO7HdvVL0=&amp;reserved=0</t>
-  </si>
-  <si>
     <t>During all breaks</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Small Spacecraft Systems Virtual Institute</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/dl/launcher/launcher.html?url=%2F_%23%2Fl%2Fmeetup-join%2F19%3Ameeting_YjZmMjUzMTMtOWMxOC00MWU1LWE5ZGUtNzZiZWEzMDRmZWJk%40thread.v2%2F0%3Fcontext%3D%257b%2522Tid%2522%253a%25227005d458-45be-48ae-8140-d43da96dd17b%2522%252c%2522Oid%2522%253a%2522e9e2948d-c8cb-4074-91c1-81699a6e5194%2522%257d%26anon%3Dtrue&amp;type=meetup-join&amp;deeplinkId=1c1b9c5d-ccc6-4989-8202-5853687c47e0&amp;directDl=true&amp;msLaunch=true&amp;enableMobilePage=true&amp;suppressPrompt=true</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -564,8 +564,8 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -598,7 +598,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -634,6 +634,7 @@
     <hyperlink ref="B11" r:id="rId2" xr:uid="{A19BAAE3-21AB-BE42-888B-1CD28837F47A}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{278AD5FF-13B3-3742-9D18-F96F77A759D5}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{9A1FEC08-25B9-EB46-ADDA-B9829A6FF5D7}"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://teams.microsoft.com/dl/launcher/launcher.html?url=%2F_%23%2Fl%2Fmeetup-join%2F19%3Ameeting_YjZmMjUzMTMtOWMxOC00MWU1LWE5ZGUtNzZiZWEzMDRmZWJk%40thread.v2%2F0%3Fcontext%3D%257b%2522Tid%2522%253a%25227005d458-45be-48ae-8140-d43da96dd17b%2522%252c%2522Oid%2522%253a%2522e9e2948d-c8cb-4074-91c1-81699a6e5194%2522%257d%26anon%3Dtrue&amp;type=meetup-join&amp;deeplinkId=1c1b9c5d-ccc6-4989-8202-5853687c47e0&amp;directDl=true&amp;msLaunch=true&amp;enableMobilePage=true&amp;suppressPrompt=true" xr:uid="{08DDBAD9-329A-D14B-9F39-9B5838A8CB3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
